--- a/src/main/java/doc/lock/AQS.xlsx
+++ b/src/main/java/doc/lock/AQS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9990"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>时间点</t>
   </si>
@@ -28,10 +28,10 @@
     <t>thread3</t>
   </si>
   <si>
-    <t>执行后AQS的状态</t>
-  </si>
-  <si>
     <t>操作</t>
+  </si>
+  <si>
+    <t>操作执行后AQS的状态</t>
   </si>
   <si>
     <t>state=0 
@@ -44,34 +44,28 @@
 【获取成功】</t>
   </si>
   <si>
+    <t>tryAcquire直接将state从0改为1</t>
+  </si>
+  <si>
     <t>state=1
 head=null
 tail=null
 exclusiveOwnerThread=thread1</t>
   </si>
   <si>
-    <t>tryAcquire直接将state从0改为1</t>
-  </si>
-  <si>
     <t>acquire
 【获取失败】
 【进行排队】
 【线程被阻塞】</t>
   </si>
   <si>
-    <t>state=1
-head=Node0[pre=null,next=Node1,thread=null，waitStatus=-1]
-tail=Node1[pre=Node0,next=null,thread=thread2,waitStatus=0]
-exclusiveOwnerThread=thread1</t>
-  </si>
-  <si>
     <r>
       <t>1：tryAcquire失败
 2：addWaiter成功，【tail为空，再次调用enq】
-3：enq成功
+3：enq成功，新建一个Node(null)作为head 和Node2（thread2)
 4：acquireQueued循环：
 ｛
-    4.1： tryAcquire,成功后跳出循环，失败继续循环
+    4.1：tryAcquire,成功后跳出循环，失败继续循环
     4.2: shouldParkAfterFailedAcquire，将head的waitStatus置为-1
     4.3: tryAcquire失败
     4.4：parkAndCheckInterrupt成功，thread2被阻塞（</t>
@@ -101,20 +95,160 @@
   </si>
   <si>
     <t>state=1
-head=Node0[pre=null,next=Node1,thread=null，waitStatus=-1]
-     Node1[pre=Node0,next=Node2,thread=thread2,waitStatus=-1]
-tail=Node2[pre=Node1,next=null,thread=thread3,waitStatus=0]
+head=Node1[pre=null,next=Node1,thread=null，waitStatus=-1]
+tail=Node2[pre=Node0,next=null,thread=thread2,waitStatus=0]
 exclusiveOwnerThread=thread1</t>
   </si>
   <si>
-    <t>同上，只是4中将Node1的waitStatus置位-1</t>
-  </si>
-  <si>
-    <t>release</t>
-  </si>
-  <si>
-    <t>1：tryRelease成功，将state从1改为0
-2：unparkSuccessor，将thread1唤醒</t>
+    <t>同上，只是4中将Node2的waitStatus置位-1</t>
+  </si>
+  <si>
+    <t>state=1
+head=Node1[pre=null,next=Node1,thread=null，waitStatus=-1]
+     Node2[pre=Node0,next=Node2,thread=thread2,waitStatus=-1]
+tail=Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]
+exclusiveOwnerThread=thread1</t>
+  </si>
+  <si>
+    <t>release
+【成功释放】</t>
+  </si>
+  <si>
+    <t>1：thread1执行tryRelease成功，将state从1改为0
+2：unparkSuccessor，head(Node1)的waitStatus&lt;1,将后续节点Node2中的thread2唤醒
+3：thread2继续执行时间点3的第4步acquireQueued方法中的循环，成功tryAcquire。
+    3.1：将state从0改为1
+    3.2：将exclusiveOwnerThread设置为thead2
+    3.3: 将Node2设置为head</t>
+  </si>
+  <si>
+    <r>
+      <t>state=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（release从1变为0，tryAcquire又从0变为了1）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+head=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Node2[pre=Node0,next=Node2,thread=thread2,waitStatus=-1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tail=Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]
+exclusiveOwnerThread=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thread2</t>
+    </r>
+  </si>
+  <si>
+    <t>1：thread2执行tryRelease成功，将state从1改为0
+2：unparkSuccessor，head(Node2)的waitStatus&lt;1, 将thread3唤醒
+3：thread3继续执行时间点3的第4步acquireQueued方法中的循环，，成功tryAcquire。
+    3.1：将state从0改为1
+    3.2：将exclusiveOwnerThread设置为thead3
+    3.3: 将Node3设置为head</t>
+  </si>
+  <si>
+    <r>
+      <t>state=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（release从1变为0，tryAcquire又从0变为了1）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+head=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+tail=Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]
+exclusiveOwnerThread=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thread3</t>
+    </r>
+  </si>
+  <si>
+    <t>1：thread3执行tryRelease成功，将state从1改为0
+2：unparkSuccessor，head(Node3)的waitStatus=0,不进行唤醒。
+3：</t>
   </si>
 </sst>
 </file>
@@ -122,9 +256,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -144,6 +278,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -152,30 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,75 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -266,8 +369,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,6 +407,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -295,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,13 +438,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,169 +558,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +635,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,7 +672,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,33 +681,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +724,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,139 +755,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -755,7 +898,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,47 +1238,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="64.75" customWidth="1"/>
-    <col min="6" max="6" width="67" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67" customWidth="1"/>
+    <col min="6" max="6" width="64.75" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="72" customHeight="1" spans="1:5">
+    <row r="2" ht="72" customHeight="1" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1125,56 +1288,96 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="172" customHeight="1" spans="1:6">
+    <row r="4" ht="172" customHeight="1" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="67.5" spans="1:6">
+    <row r="5" ht="67.5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="65" customHeight="1" spans="1:6">
+    <row r="6" ht="162" customHeight="1" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
-    <row r="7" ht="65" customHeight="1"/>
+    <row r="7" ht="94.5" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/java/doc/lock/AQS.xlsx
+++ b/src/main/java/doc/lock/AQS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21600" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>时间点</t>
   </si>
@@ -60,6 +60,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1：tryAcquire失败
 2：addWaiter成功，【tail为空，再次调用enq】
 3：enq成功，新建一个Node(null)作为head 和Node2（thread2)
@@ -104,8 +111,8 @@
   </si>
   <si>
     <t>state=1
-head=Node1[pre=null,next=Node1,thread=null，waitStatus=-1]
-     Node2[pre=Node0,next=Node2,thread=thread2,waitStatus=-1]
+head=Node1[pre=null,next=Node2,thread=null，waitStatus=-1]
+     Node2[pre=Node0,next=Node3,thread=thread2,waitStatus=-1]
 tail=Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]
 exclusiveOwnerThread=thread1</t>
   </si>
@@ -114,12 +121,24 @@
 【成功释放】</t>
   </si>
   <si>
-    <t>1：thread1执行tryRelease成功，将state从1改为0
+    <r>
+      <t>1：thread1执行tryRelease成功，将state从1改为0
 2：unparkSuccessor，head(Node1)的waitStatus&lt;1,将后续节点Node2中的thread2唤醒
 3：thread2继续执行时间点3的第4步acquireQueued方法中的循环，成功tryAcquire。
     3.1：将state从0改为1
     3.2：将exclusiveOwnerThread设置为thead2
-    3.3: 将Node2设置为head</t>
+    3.3: 将Node2设置为head,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setHead方法将Node2的pre和thread都设为null</t>
+    </r>
   </si>
   <si>
     <r>
@@ -154,7 +173,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Node2[pre=Node0,next=Node2,thread=thread2,waitStatus=-1]</t>
+      <t>Node2[pre=null,next=Node3,thread=null,waitStatus=-1]</t>
     </r>
     <r>
       <rPr>
@@ -180,12 +199,24 @@
     </r>
   </si>
   <si>
-    <t>1：thread2执行tryRelease成功，将state从1改为0
+    <r>
+      <t>1：thread2执行tryRelease成功，将state从1改为0
 2：unparkSuccessor，head(Node2)的waitStatus&lt;1, 将thread3唤醒
 3：thread3继续执行时间点3的第4步acquireQueued方法中的循环，，成功tryAcquire。
     3.1：将state从0改为1
     3.2：将exclusiveOwnerThread设置为thead3
-    3.3: 将Node3设置为head</t>
+    3.3: 将Node3设置为head,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setHead方法将Node3的pre和thread都设为null</t>
+    </r>
   </si>
   <si>
     <r>
@@ -220,7 +251,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]</t>
+      <t>Node3[pre=null,next=null,thread=null,waitStatus=0]</t>
     </r>
     <r>
       <rPr>
@@ -231,7 +262,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-tail=Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]
+tail=Node3[pre=null,next=null,thread=null,waitStatus=0]
 exclusiveOwnerThread=</t>
     </r>
     <r>
@@ -249,6 +280,44 @@
     <t>1：thread3执行tryRelease成功，将state从1改为0
 2：unparkSuccessor，head(Node3)的waitStatus=0,不进行唤醒。
 3：</t>
+  </si>
+  <si>
+    <r>
+      <t>state=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+head=Node3[pre=null,next=null,thread=null,waitStatus=0]
+tail=Node3[pre=null,next=null,thread=null,waitStatus=0]
+exclusiveOwnerThread=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -257,9 +326,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -278,60 +347,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,9 +387,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,61 +462,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,193 +507,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,45 +704,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,6 +731,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,26 +804,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -743,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,137 +824,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,19 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1240,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1250,7 +1307,7 @@
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67" customWidth="1"/>
+    <col min="5" max="5" width="69.75" customWidth="1"/>
     <col min="6" max="6" width="64.75" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
   </cols>
@@ -1332,16 +1389,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="3"/>
@@ -1350,16 +1407,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1367,15 +1424,14 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>6</v>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/doc/lock/AQS.xlsx
+++ b/src/main/java/doc/lock/AQS.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9990"/>
+    <workbookView windowWidth="28125" windowHeight="11940" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="独占模式" sheetId="1" r:id="rId1"/>
+    <sheet name="共享模式" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>时间点</t>
   </si>
@@ -122,6 +123,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1：thread1执行tryRelease成功，将state从1改为0
 2：unparkSuccessor，head(Node1)的waitStatus&lt;1,将后续节点Node2中的thread2唤醒
 3：thread2继续执行时间点3的第4步acquireQueued方法中的循环，成功tryAcquire。
@@ -142,6 +150,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>state=1</t>
     </r>
     <r>
@@ -200,6 +215,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1：thread2执行tryRelease成功，将state从1改为0
 2：unparkSuccessor，head(Node2)的waitStatus&lt;1, 将thread3唤醒
 3：thread3继续执行时间点3的第4步acquireQueued方法中的循环，，成功tryAcquire。
@@ -220,6 +242,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>state=1</t>
     </r>
     <r>
@@ -283,6 +312,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>state=</t>
     </r>
     <r>
@@ -325,9 +361,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -347,17 +383,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +428,38 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -373,7 +468,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,67 +489,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,29 +507,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,55 +549,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,127 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +740,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,71 +840,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -812,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,10 +994,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1297,41 +1333,41 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="69.75" customWidth="1"/>
     <col min="6" max="6" width="64.75" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:6">
       <c r="A2">
@@ -1432,6 +1468,48 @@
       </c>
       <c r="F8" s="5" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/doc/lock/AQS.xlsx
+++ b/src/main/java/doc/lock/AQS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="独占模式" sheetId="1" r:id="rId1"/>
@@ -70,11 +70,11 @@
       </rPr>
       <t>1：tryAcquire失败
 2：addWaiter成功，【tail为空，再次调用enq】
-3：enq成功，新建一个Node(null)作为head 和Node2（thread2)
+3：enq成功，新建一个Node1(null)作为head 和Node2（thread2)
 4：acquireQueued循环：
 ｛
     4.1：tryAcquire,成功后跳出循环，失败继续循环
-    4.2: shouldParkAfterFailedAcquire，将head的waitStatus置为-1
+    4.2: shouldParkAfterFailedAcquire，将head(Node1)的waitStatus置为-1
     4.3: tryAcquire失败
     4.4：parkAndCheckInterrupt成功，thread2被阻塞（</t>
     </r>
@@ -103,8 +103,8 @@
   </si>
   <si>
     <t>state=1
-head=Node1[pre=null,next=Node1,thread=null，waitStatus=-1]
-tail=Node2[pre=Node0,next=null,thread=thread2,waitStatus=0]
+head=Node1[pre=null,next=Node2,thread=null，waitStatus=-1]
+tail=Node2[pre=Node1,next=null,thread=thread2,waitStatus=0]
 exclusiveOwnerThread=thread1</t>
   </si>
   <si>
@@ -113,8 +113,8 @@
   <si>
     <t>state=1
 head=Node1[pre=null,next=Node2,thread=null，waitStatus=-1]
-     Node2[pre=Node0,next=Node3,thread=thread2,waitStatus=-1]
-tail=Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]
+     Node2[pre=Node1,next=Node3,thread=thread2,waitStatus=-1]
+tail=Node3[pre=Node2,next=null,thread=thread3,waitStatus=0]
 exclusiveOwnerThread=thread1</t>
   </si>
   <si>
@@ -199,7 +199,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-tail=Node3[pre=Node1,next=null,thread=thread3,waitStatus=0]
+tail=Node3[pre=Node2,next=null,thread=thread3,waitStatus=0]
 exclusiveOwnerThread=</t>
     </r>
     <r>
@@ -361,8 +361,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -383,29 +383,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +413,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -434,50 +464,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,43 +497,44 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,7 +543,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,55 +639,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,121 +723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +734,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -761,34 +764,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,11 +809,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,149 +842,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,9 +1001,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1333,8 +1324,10 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1343,7 +1336,7 @@
     <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="69.75" customWidth="1"/>
+    <col min="5" max="5" width="72" customWidth="1"/>
     <col min="6" max="6" width="64.75" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
   </cols>
@@ -1391,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="172" customHeight="1" spans="1:7">
+    <row r="4" ht="159" customHeight="1" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1421,7 +1414,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="162" customHeight="1" spans="1:7">
+    <row r="6" ht="144" customHeight="1" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1434,7 +1427,7 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="3"/>
@@ -1452,7 +1445,7 @@
       <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1481,7 +1474,7 @@
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
